--- a/data/add_to_cart_data.xlsx
+++ b/data/add_to_cart_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2A1A4-8347-4352-8A84-4BA98E8E627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD3854-D3A5-4640-BF7B-65F043E7E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A36AF136-A437-4EF9-B12B-2308CB978ED4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A36AF136-A437-4EF9-B12B-2308CB978ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="add_to_cart" sheetId="1" r:id="rId1"/>
+    <sheet name="purchase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>testCase</t>
   </si>
@@ -52,6 +53,36 @@
   </si>
   <si>
     <t>Product added</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Budi Santoso</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -102,9 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5C2BF4-F413-4996-B06B-E61A1770F1DD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -456,4 +488,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3580DE5-6694-40D8-88A6-502A2064F934}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44445555</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2026</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/add_to_cart_data.xlsx
+++ b/data/add_to_cart_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demoblaze-playwright\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFD3854-D3A5-4640-BF7B-65F043E7E265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFADB87-95A4-40D9-8FC0-8CF8D7241ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A36AF136-A437-4EF9-B12B-2308CB978ED4}"/>
+    <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{A36AF136-A437-4EF9-B12B-2308CB978ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="add_to_cart" sheetId="1" r:id="rId1"/>
     <sheet name="purchase" sheetId="2" r:id="rId2"/>
+    <sheet name="checkout_negative" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>testCase</t>
   </si>
@@ -83,6 +84,21 @@
   </si>
   <si>
     <t>08</t>
+  </si>
+  <si>
+    <t>scenarioName</t>
+  </si>
+  <si>
+    <t>Nama Kosong</t>
+  </si>
+  <si>
+    <t>Kartu Kosong</t>
+  </si>
+  <si>
+    <t>Semua Kosong</t>
+  </si>
+  <si>
+    <t>Please fill out Name and Creditcard.</t>
   </si>
 </sst>
 </file>
@@ -494,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3580DE5-6694-40D8-88A6-502A2064F934}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,4 +576,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2172DBA9-9280-4C2A-8A88-BD43E8232D24}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="D4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44445555</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2026</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>